--- a/Inputs/variants.xlsx
+++ b/Inputs/variants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B117951A-8690-334B-A696-EE18D15938AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1820DC52-4F5D-0241-8E0A-2B81192C41E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{709315D1-E826-7745-85B7-AA2E5505B52E}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,16 +443,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -463,16 +463,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>0</v>

--- a/Inputs/variants.xlsx
+++ b/Inputs/variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1820DC52-4F5D-0241-8E0A-2B81192C41E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E1B49B-B057-6046-9143-268C3874D02A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{709315D1-E826-7745-85B7-AA2E5505B52E}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Inputs/variants.xlsx
+++ b/Inputs/variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E1B49B-B057-6046-9143-268C3874D02A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36C32FD-D421-5A4A-BE42-ED38C8708E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{709315D1-E826-7745-85B7-AA2E5505B52E}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,16 +443,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -463,13 +463,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>17</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>

--- a/Inputs/variants.xlsx
+++ b/Inputs/variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36C32FD-D421-5A4A-BE42-ED38C8708E61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3868A864-777C-2044-A311-54BE9A2FA3C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{709315D1-E826-7745-85B7-AA2E5505B52E}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,13 +443,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -463,13 +463,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
       <c r="E4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>0</v>

--- a/Inputs/variants.xlsx
+++ b/Inputs/variants.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3868A864-777C-2044-A311-54BE9A2FA3C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568BCC2A-1477-5648-B298-09A62D10F110}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{709315D1-E826-7745-85B7-AA2E5505B52E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>0</v>

--- a/Inputs/variants.xlsx
+++ b/Inputs/variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568BCC2A-1477-5648-B298-09A62D10F110}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2D3C66-6543-004B-930F-B6A1174960FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{709315D1-E826-7745-85B7-AA2E5505B52E}"/>
   </bookViews>

--- a/Inputs/variants.xlsx
+++ b/Inputs/variants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2D3C66-6543-004B-930F-B6A1174960FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9ED73-866C-F043-B3D9-27B7DFEBE6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{709315D1-E826-7745-85B7-AA2E5505B52E}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,16 +443,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -466,13 +466,13 @@
         <v>62</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
         <v>3</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>0</v>

--- a/Inputs/variants.xlsx
+++ b/Inputs/variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9ED73-866C-F043-B3D9-27B7DFEBE6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB8F40-3395-8140-8AAF-387F0C0A7307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{709315D1-E826-7745-85B7-AA2E5505B52E}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,16 +443,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
         <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -463,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -486,13 +486,13 @@
         <v>50</v>
       </c>
       <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
       <c r="E4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>0</v>

--- a/Inputs/variants.xlsx
+++ b/Inputs/variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB8F40-3395-8140-8AAF-387F0C0A7307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F64B8A-D5DD-1345-9E8E-A47DC122BF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{709315D1-E826-7745-85B7-AA2E5505B52E}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,13 +443,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>9</v>
@@ -483,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>4</v>

--- a/Inputs/variants.xlsx
+++ b/Inputs/variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F64B8A-D5DD-1345-9E8E-A47DC122BF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A801D-D3D8-DA47-9115-BF66A4F2A5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{709315D1-E826-7745-85B7-AA2E5505B52E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>San Diego</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>county</t>
+  </si>
+  <si>
+    <t>B.1.617.2</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42BF646-7650-6F4F-86C0-B58FBE9DC2AA}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,7 +421,7 @@
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -437,19 +440,22 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1">
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>9</v>
@@ -457,28 +463,34 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -497,8 +509,11 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -516,6 +531,9 @@
       </c>
       <c r="F5">
         <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/variants.xlsx
+++ b/Inputs/variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A801D-D3D8-DA47-9115-BF66A4F2A5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5C310A-458B-4344-8F8F-72126376CFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{709315D1-E826-7745-85B7-AA2E5505B52E}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,16 +449,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
         <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
       <c r="E4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -517,28 +517,28 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="1">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4 B2:B4" xr:uid="{92D20D74-30C1-D14C-BCCF-2C551C8F4907}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5 B2:B5" xr:uid="{92D20D74-30C1-D14C-BCCF-2C551C8F4907}">
       <formula1>0.1</formula1>
       <formula2>100</formula2>
     </dataValidation>
